--- a/bots/crawl_ch/output/vegi_coop_2023-02-12.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-02-12.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1414,13 +1414,13 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Fairtrade Passionsfrucht ca. 200g - Online kein Bestand 3.20 Schweizer Franken</t>
+          <t>Fairtrade Passionsfrucht ca. 200g 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3012,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3747,7 +3747,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -3950,7 +3950,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Betty Bossi Koriander 1 Bund 2.40 Schweizer Franken</t>
+          <t>Betty Bossi Koriander 1 Bund - Online kein Bestand 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4295,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4750,7 +4750,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -4819,28 +4819,28 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4111054</t>
+          <t>4680604</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi</t>
+          <t>Betty Bossi Cicorino Rosso &amp;amp; Endivien Salat</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/4111054</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-cicorino-rosso-endivien-salat/p/4680604</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E67" t="n">
         <v>4.5</v>
@@ -4852,12 +4852,12 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4877,39 +4877,43 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
+          <t>Betty Bossi Cicorino Rosso &amp;amp; Endivien Salat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4680604</t>
+          <t>3406186</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Betty Bossi Cicorino Rosso &amp;amp; Endivien Salat</t>
+          <t>Petersilie gekraust 1 Bund</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-cicorino-rosso-endivien-salat/p/4680604</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/petersilie-gekraust-1-bund/p/3406186</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E68" t="n">
         <v>4.5</v>
@@ -4921,12 +4925,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4936,7 +4940,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4946,12 +4950,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Betty Bossi Cicorino Rosso &amp;amp; Endivien Salat 2.95 Schweizer Franken</t>
+          <t>Petersilie gekraust 1 Bund 1.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4961,28 +4965,28 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3406186</t>
+          <t>4826444</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Petersilie gekraust 1 Bund</t>
+          <t>Naturaplan Bio Kohlrabi 1 Stück</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/petersilie-gekraust-1-bund/p/3406186</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/naturaplan-bio-kohlrabi-1-stueck/p/4826444</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E69" t="n">
         <v>4.5</v>
@@ -4994,68 +4998,64 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>1.80/1ST</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Petersilie gekraust 1 Bund 1.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kohlrabi 1 Stück 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4826444</t>
+          <t>6328636</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kohlrabi 1 Stück</t>
+          <t>Naturaplan Bio Kiwi gelb</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/naturaplan-bio-kohlrabi-1-stueck/p/4826444</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi-gelb/p/6328636</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E70" t="n">
         <v>4.5</v>
@@ -5067,64 +5067,64 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1.80/1ST</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kohlrabi 1 Stück 1.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Kiwi gelb 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6328636</t>
+          <t>4111054</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi gelb</t>
+          <t>Naturaplan Bio Kiwi</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi-gelb/p/6328636</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/4111054</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
         <v>4.5</v>
@@ -5136,12 +5136,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5166,13 +5166,13 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi gelb 4.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Kiwi 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6272,7 +6272,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6544,7 +6544,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7027,45 +7027,41 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3673328</t>
+          <t>3090895</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kräuterseitling ca. 100g</t>
+          <t>Tomaten Peretti ca. 500g</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-kraeuterseitling-ca/p/3673328</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-peretti-ca/p/3090895</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E99" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7075,7 +7071,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7085,52 +7081,60 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kräuterseitling ca. 100g 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
+          <t>Tomaten Peretti ca. 500g 2.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3090895</t>
+          <t>3673328</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tomaten Peretti ca. 500g</t>
+          <t>Naturaplan Bio Kräuterseitling ca. 100g</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-peretti-ca/p/3090895</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-kraeuterseitling-ca/p/3673328</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
-      </c>
-      <c r="F100" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7140,7 +7144,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7150,22 +7154,18 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Tomaten Peretti ca. 500g 2.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kräuterseitling ca. 100g 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7234,7 +7234,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7376,7 +7376,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7514,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7648,7 +7648,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8332,7 +8332,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8385,7 +8385,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8454,7 +8454,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8523,7 +8523,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -8868,31 +8868,31 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3090469</t>
+          <t>6373850</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel Topaz ca. 1kg</t>
+          <t>Naturaplan Bio Suppengemüse</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-topaz-ca/p/3090469</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-suppengemuese/p/6373850</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -8901,67 +8901,67 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>6.30/1kg</t>
+          <t>0.70/100g</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel Topaz ca. 1kg 6.30 Schweizer Franken</t>
+          <t>Naturaplan Bio Suppengemüse 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6373850</t>
+          <t>3090469</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Suppengemüse</t>
+          <t>Naturaplan Bio Äpfel Topaz ca. 1kg</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-suppengemuese/p/6373850</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-topaz-ca/p/3090469</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -8970,43 +8970,43 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.70/100g</t>
+          <t>6.30/1kg</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Suppengemüse 3.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Äpfel Topaz ca. 1kg 6.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9286,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9765,7 +9765,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9830,7 +9830,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -9972,7 +9972,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10104,13 +10104,13 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Kartoffeln Raclette IP-Suisse 3.95 Schweizer Franken</t>
+          <t>Kartoffeln Raclette IP-Suisse - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10179,7 +10179,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10597,7 +10597,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10879,7 +10879,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -10944,7 +10944,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11086,7 +11086,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11155,7 +11155,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11224,7 +11224,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11354,7 +11354,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11423,7 +11423,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11492,7 +11492,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11756,7 +11756,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11825,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12146,7 +12146,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12215,7 +12215,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12284,7 +12284,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12637,7 +12637,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12706,7 +12706,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12844,7 +12844,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13051,7 +13051,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13189,7 +13189,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13254,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13396,7 +13396,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13461,7 +13461,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13530,7 +13530,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13603,7 +13603,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13818,7 +13818,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13891,7 +13891,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13956,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14102,7 +14102,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14167,7 +14167,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14236,7 +14236,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14309,7 +14309,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14429,7 +14429,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14502,7 +14502,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14571,7 +14571,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14717,7 +14717,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14786,7 +14786,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14930,7 +14930,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -14997,7 +14997,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15062,7 +15062,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15131,7 +15131,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15204,7 +15204,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15340,7 +15340,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15409,7 +15409,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15482,7 +15482,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15547,7 +15547,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15612,7 +15612,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15681,7 +15681,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15750,7 +15750,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15815,7 +15815,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15888,7 +15888,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16097,7 +16097,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16170,7 +16170,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16316,7 +16316,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16389,7 +16389,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16458,7 +16458,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16604,7 +16604,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16657,28 +16657,28 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>6114998</t>
+          <t>3396897</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kurkuma ca. 100g</t>
+          <t>Naturaplan Bio Kabis weiss ca. 1kg</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-kurkuma-ca/p/6114998</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/naturaplan-bio-kabis-weiss-ca/p/3396897</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E239" t="n">
         <v>4.5</v>
@@ -16690,81 +16690,77 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>5.60/1kg</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kurkuma ca. 100g 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Kabis weiss ca. 1kg 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>3396897</t>
+          <t>3392556</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kabis weiss ca. 1kg</t>
+          <t>Blut-Saftorangen</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/naturaplan-bio-kabis-weiss-ca/p/3396897</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/blut-saftorangen/p/3392556</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E240" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>5.60/1kg</t>
+          <t>1.65/1kg</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -16774,7 +16770,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -16784,83 +16780,87 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kabis weiss ca. 1kg 5.60 Schweizer Franken</t>
+          <t>Blut-Saftorangen 28% Aktion 4.95 Schweizer Franken statt 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>3392556</t>
+          <t>6114998</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Blut-Saftorangen</t>
+          <t>Naturaplan Bio Kurkuma ca. 100g</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/blut-saftorangen/p/3392556</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-kurkuma-ca/p/6114998</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E241" t="n">
-        <v>2</v>
-      </c>
-      <c r="F241" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>1.65/1kg</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Blut-Saftorangen 28% Aktion 4.95 Schweizer Franken statt 6.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Kurkuma ca. 100g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16929,7 +16929,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -16998,7 +16998,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17136,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17205,7 +17205,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17274,7 +17274,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17347,7 +17347,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17416,7 +17416,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17485,7 +17485,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17554,7 +17554,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17627,7 +17627,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17836,7 +17836,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -17974,7 +17974,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18043,7 +18043,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18110,7 +18110,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18248,7 +18248,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18321,7 +18321,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18467,7 +18467,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18536,7 +18536,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18670,7 +18670,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18743,7 +18743,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18808,7 +18808,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18873,7 +18873,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -18946,7 +18946,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19019,7 +19019,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19088,7 +19088,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19157,7 +19157,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19230,7 +19230,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19297,7 +19297,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19370,7 +19370,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19443,7 +19443,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19516,31 +19516,31 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>4904253</t>
+          <t>4655212</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischpilze</t>
+          <t>Betty Bossi Mini Kopfsalat rot</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-mischpilze/p/4904253</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E280" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -19549,12 +19549,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>4.76/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -19564,7 +19564,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -19574,56 +19574,56 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischpilze 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N280" t="inlineStr"/>
+          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>4655212</t>
+          <t>4227197</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot</t>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E281" t="n">
-        <v>5</v>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>0.99/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -19633,7 +19633,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -19643,56 +19643,56 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>4227197</t>
+          <t>4904253</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen</t>
+          <t>Naturaplan Bio Mischpilze</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-roeschen/p/4227197</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pilze/naturaplan-bio-mischpilze/p/4904253</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
       </c>
-      <c r="F282" t="inlineStr"/>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>0.99/100g</t>
+          <t>4.76/100g</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -19702,7 +19702,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -19712,18 +19712,18 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pilze']</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>Broccoli- &amp;amp; Blumenkohl-Röschen 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Mischpilze 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19792,7 +19792,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19861,7 +19861,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19924,7 +19924,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -19993,7 +19993,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20066,7 +20066,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20135,7 +20135,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20277,7 +20277,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20350,7 +20350,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20419,7 +20419,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20484,7 +20484,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20551,7 +20551,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20616,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20689,7 +20689,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20758,7 +20758,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20827,7 +20827,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20900,7 +20900,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -20969,7 +20969,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21034,7 +21034,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21099,35 +21099,35 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>4617929</t>
+          <t>6466965</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Délicorn Cordon bleu aus Seitan 2 Stück</t>
+          <t>Garden Gourmet vegane Filet-Stückchen</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-cordon-bleu-aus-seitan-2-stueck/p/4617929</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-vegane-filet-stueckchen/p/6466965</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -21137,7 +21137,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21147,7 +21147,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21157,50 +21157,50 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Délicorn Cordon bleu aus Seitan 2 Stück 4.95 Schweizer Franken</t>
+          <t>Garden Gourmet vegane Filet-Stückchen 25% ab 2 Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6466965</t>
+          <t>4617929</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegane Filet-Stückchen</t>
+          <t>Délicorn Cordon bleu aus Seitan 2 Stück</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-vegane-filet-stueckchen/p/6466965</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-cordon-bleu-aus-seitan-2-stueck/p/4617929</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -21210,7 +21210,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21220,7 +21220,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -21230,22 +21230,22 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Garden Gourmet vegane Filet-Stückchen 25% ab 2 Aktion 4.95 Schweizer Franken</t>
+          <t>Délicorn Cordon bleu aus Seitan 2 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21310,7 +21310,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21375,7 +21375,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21448,7 +21448,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21521,7 +21521,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21594,7 +21594,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21659,149 +21659,149 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5692284</t>
+          <t>3091180</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Délicorn vegan Burger</t>
+          <t>Batavia</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/delicorn-vegan-burger/p/5692284</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.40/1ST</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Délicorn vegan Burger 3.95 Schweizer Franken</t>
+          <t>Batavia 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>3091180</t>
+          <t>5692284</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Batavia</t>
+          <t>Délicorn vegan Burger</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/batavia/p/3091180</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/delicorn-vegan-burger/p/5692284</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E312" t="n">
-        <v>5</v>
-      </c>
-      <c r="F312" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2.40/1ST</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Batavia 2.40 Schweizer Franken</t>
+          <t>Délicorn vegan Burger 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -21874,31 +21874,31 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>5987849</t>
+          <t>6870514</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Betty Bossi Gartensalat mit Kräuter</t>
+          <t>Délicorn Bio Gehacktes</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-gartensalat-mit-kraeuter/p/5987849</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-bio-gehacktes/p/6870514</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -21907,12 +21907,12 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -21922,7 +21922,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -21932,46 +21932,46 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Betty Bossi Gartensalat mit Kräuter 3.95 Schweizer Franken</t>
+          <t>Délicorn Bio Gehacktes 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>6870514</t>
+          <t>5987849</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Délicorn Bio Gehacktes</t>
+          <t>Betty Bossi Gartensalat mit Kräuter</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-bio-gehacktes/p/6870514</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-gartensalat-mit-kraeuter/p/5987849</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E315" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -21980,12 +21980,12 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -21995,7 +21995,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -22005,22 +22005,22 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Délicorn Bio Gehacktes 4.50 Schweizer Franken</t>
+          <t>Betty Bossi Gartensalat mit Kräuter 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22093,7 +22093,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22162,7 +22162,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22235,7 +22235,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22377,7 +22377,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22450,7 +22450,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22517,7 +22517,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22586,7 +22586,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22659,7 +22659,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22732,7 +22732,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22805,7 +22805,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22878,7 +22878,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -22951,7 +22951,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23024,7 +23024,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23097,7 +23097,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23166,7 +23166,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23239,7 +23239,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23312,7 +23312,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23385,7 +23385,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23458,7 +23458,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23531,45 +23531,45 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>3668907</t>
+          <t>6781641</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel rote Sorte 750g</t>
+          <t>Beyond Hackbällchen</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-rote-sorte/p/3668907</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -23579,7 +23579,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -23589,56 +23589,60 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Äpfel rote Sorte 750g 4.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N337" t="inlineStr"/>
+          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6781641</t>
+          <t>6814802</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen</t>
+          <t>The Green Mountain plant-based Aufschnitt</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-aufschnitt/p/6814802</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>BEYOND MEAT</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>4.95/100g</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -23648,7 +23652,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -23658,39 +23662,39 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Aufschnitt 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6814802</t>
+          <t>3668907</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Aufschnitt</t>
+          <t>Naturaplan Bio Äpfel rote Sorte 750g</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-aufschnitt/p/6814802</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/naturaplan-bio-aepfel-rote-sorte/p/3668907</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -23701,17 +23705,17 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>4.95/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -23721,7 +23725,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -23731,22 +23735,18 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Aufschnitt 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Äpfel rote Sorte 750g 4.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23811,7 +23811,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23884,7 +23884,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -23949,7 +23949,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24022,7 +24022,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24095,7 +24095,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24168,7 +24168,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24241,7 +24241,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24314,7 +24314,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24387,7 +24387,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24456,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24507,31 +24507,31 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>4083022</t>
+          <t>6862503</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox</t>
+          <t>Betty Bossi Sous vide Karotten</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E351" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -24540,67 +24540,71 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>7.83/1kg</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N351" t="inlineStr"/>
+          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6862503</t>
+          <t>4083022</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten</t>
+          <t>Naturaplan Bio Family Gemüsebox</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E352" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -24609,47 +24613,43 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>7.83/1kg</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24722,7 +24722,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24787,7 +24787,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24860,7 +24860,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24929,7 +24929,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24996,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25069,7 +25069,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25142,7 +25142,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25215,7 +25215,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25288,7 +25288,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25434,7 +25434,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25507,7 +25507,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25576,7 +25576,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25641,7 +25641,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25710,7 +25710,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25783,7 +25783,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25856,7 +25856,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -25927,7 +25927,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26000,7 +26000,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26073,7 +26073,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26138,7 +26138,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26284,7 +26284,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26426,7 +26426,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26497,7 +26497,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26570,7 +26570,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26643,7 +26643,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26712,7 +26712,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26785,7 +26785,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26858,7 +26858,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26927,7 +26927,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -26992,7 +26992,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27045,7 +27045,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27110,7 +27110,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27179,7 +27179,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27252,7 +27252,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27321,7 +27321,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27390,7 +27390,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27455,7 +27455,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27528,7 +27528,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27601,7 +27601,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27670,7 +27670,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27743,7 +27743,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27816,7 +27816,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27889,7 +27889,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -27954,7 +27954,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28100,7 +28100,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28165,7 +28165,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28230,7 +28230,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28297,45 +28297,45 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>6638726</t>
+          <t>3090601</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Betty Bossi Salat Pasta &amp;amp; Pesto</t>
+          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-salat-pasta-pesto/p/6638726</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-swiss-mix-sauerkraut-sauerrueben/p/3090601</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E405" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>0.76/100g</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -28345,7 +28345,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -28355,60 +28355,60 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>Betty Bossi Salat Pasta &amp;amp; Pesto 4.80 Schweizer Franken</t>
+          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>7038142</t>
+          <t>6638726</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet</t>
+          <t>Betty Bossi Salat Pasta &amp;amp; Pesto</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-crispy-filet/p/7038142</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-salat-pasta-pesto/p/6638726</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E406" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>3.13/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -28418,7 +28418,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -28428,60 +28428,60 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet 25% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Salat Pasta &amp;amp; Pesto 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>3090601</t>
+          <t>7038142</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben</t>
+          <t>Garden Gourmet Crispy Filet</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-swiss-mix-sauerkraut-sauerrueben/p/3090601</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-crispy-filet/p/7038142</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E407" t="n">
         <v>4.5</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>0.76/100g</t>
+          <t>3.13/100g</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -28491,7 +28491,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -28501,22 +28501,22 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben 3.80 Schweizer Franken</t>
+          <t>Garden Gourmet Crispy Filet 25% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28652,7 +28652,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28725,7 +28725,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28798,7 +28798,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28871,7 +28871,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28924,7 +28924,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -28989,7 +28989,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29062,7 +29062,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29129,7 +29129,7 @@
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29198,31 +29198,31 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>4434295</t>
+          <t>6073361</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox</t>
+          <t>Naturaplan Bio Saisonfrüchte Box</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
@@ -29231,12 +29231,12 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>24.40</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>8.13/1kg</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -29246,7 +29246,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -29261,37 +29261,37 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>6073361</t>
+          <t>6803515</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box</t>
+          <t>Prix Garantie veganer Burger</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/prix-garantie-veganer-burger/p/6803515</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E419" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -29300,67 +29300,71 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>6.67/1kg</t>
+          <t>1.74/100g</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N419" t="inlineStr"/>
+          <t>Prix Garantie veganer Burger 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>6803515</t>
+          <t>4434295</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Prix Garantie veganer Burger</t>
+          <t>Naturaplan Bio Family Früchtebox</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/prix-garantie-veganer-burger/p/6803515</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E420" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -29369,47 +29373,43 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>1.74/100g</t>
+          <t>8.13/1kg</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>Prix Garantie veganer Burger 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N420" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29480,7 +29480,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29543,7 +29543,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29608,7 +29608,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29671,7 +29671,7 @@
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bratwurstalternative 6.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Bratwurstalternative - Online kein Bestand 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N424" t="inlineStr">
@@ -29681,7 +29681,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29754,7 +29754,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29827,7 +29827,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29900,7 +29900,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -29967,45 +29967,43 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>5668660</t>
+          <t>6622887</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar</t>
+          <t>UMAMI Microgreens Powermix</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
-        </is>
-      </c>
-      <c r="D429" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/umami-microgreens-powermix/p/6622887</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr"/>
       <c r="E429" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>UMAMI</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>4.88/100g</t>
+          <t>19.80/100g</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -30015,7 +30013,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -30025,58 +30023,60 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
+          <t>UMAMI Microgreens Powermix 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>6622887</t>
+          <t>7071611</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>UMAMI Microgreens Powermix</t>
+          <t>Yolo Salami Snack Sausages</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/umami-microgreens-powermix/p/6622887</t>
-        </is>
-      </c>
-      <c r="D430" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-salami-snack-sausages/p/7071611</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>1</v>
+      </c>
       <c r="E430" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>UMAMI</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>19.80/100g</t>
+          <t>7.44/100g</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -30086,7 +30086,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -30096,60 +30096,60 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>UMAMI Microgreens Powermix 4.95 Schweizer Franken</t>
+          <t>Yolo Salami Snack Sausages 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>7071611</t>
+          <t>5668660</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Yolo Salami Snack Sausages</t>
+          <t>Délicorn Spacebar</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/yolo-salami-snack-sausages/p/7071611</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
         </is>
       </c>
       <c r="D431" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E431" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>7.44/100g</t>
+          <t>4.88/100g</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -30174,7 +30174,7 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>Yolo Salami Snack Sausages 5.95 Schweizer Franken</t>
+          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N431" t="inlineStr">
@@ -30184,7 +30184,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30257,7 +30257,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30330,7 +30330,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30403,7 +30403,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30470,7 +30470,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30543,7 +30543,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30610,7 +30610,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30683,7 +30683,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30756,7 +30756,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30813,7 +30813,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30886,7 +30886,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -30953,45 +30953,41 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>6739951</t>
+          <t>3947304</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces</t>
+          <t>Tamarinde</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
         </is>
       </c>
       <c r="D443" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E443" t="n">
         <v>3.5</v>
       </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+      <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>1.32/100g</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -31001,7 +30997,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -31011,56 +31007,56 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N443" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Tamarinde 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>3947304</t>
+          <t>6739951</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tamarinde</t>
+          <t>Yolo marinated Pieces</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/tamarinde/p/3947304</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E444" t="n">
         <v>3.5</v>
       </c>
-      <c r="F444" t="inlineStr"/>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Yolo</t>
+        </is>
+      </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>1.32/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -31070,7 +31066,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -31080,18 +31076,22 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>Tamarinde 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N444" t="inlineStr"/>
+          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31158,7 +31158,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31231,7 +31231,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31304,7 +31304,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31377,7 +31377,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31450,7 +31450,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31519,7 +31519,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31663,7 +31663,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31736,7 +31736,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31809,7 +31809,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31878,7 +31878,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -31947,7 +31947,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32018,7 +32018,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32091,7 +32091,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32164,7 +32164,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32233,7 +32233,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32300,7 +32300,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32371,7 +32371,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32436,7 +32436,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32507,7 +32507,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32580,7 +32580,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32645,7 +32645,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32716,29 +32716,31 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>7065419</t>
+          <t>4309899</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
+          <t>Spargelspitzen grün 300g</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
-        </is>
-      </c>
-      <c r="D468" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargelspitzen-gruen/p/4309899</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>13</v>
+      </c>
       <c r="E468" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -32747,12 +32749,12 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>2.32/100g</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -32762,7 +32764,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -32772,46 +32774,40 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N468" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Spargelspitzen grün 300g 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>4309899</t>
+          <t>7065419</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Spargelspitzen grün 300g</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargelspitzen-gruen/p/4309899</t>
-        </is>
-      </c>
-      <c r="D469" t="n">
-        <v>13</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-kuerbis-kichererbsen/p/7065419</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
       <c r="E469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -32820,12 +32816,12 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>2.32/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -32835,7 +32831,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -32845,18 +32841,22 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>Spargelspitzen grün 300g 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N469" t="inlineStr"/>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32927,7 +32927,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
@@ -32994,7 +32994,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-02-12 12:57:05</t>
+          <t>2023-02-12 20:51:22</t>
         </is>
       </c>
     </row>
